--- a/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA - 01.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- SANTA ROSA - 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0005\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADFE2FC-35F4-4C6A-91E2-7F2BEB0B42C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D5AF43-A74C-4F35-9112-E384816665BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -407,54 +407,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,11 +563,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -649,146 +621,140 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1740,8 +1706,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1755,273 +1721,273 @@
     <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15">
         <f>F3</f>
         <v>3524.03</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15">
         <v>3524.03</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15">
         <f>F5</f>
         <v>127623.44</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>127623.44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15">
         <f>F6/2</f>
         <v>40273.769999999997</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="15">
         <f>F6/2</f>
         <v>40273.769999999997</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
         <v>80547.539999999994</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15">
         <f>F7</f>
         <v>16061.35</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
         <v>16061.35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
         <f>F8</f>
         <v>7363.19</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
         <v>7363.19</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15">
         <f>F9</f>
         <v>4000</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35">
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21">
         <f>SUM(C3:C9)</f>
         <v>175421.24</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="21">
         <f>SUM(D3:D9)</f>
         <v>63698.31</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40">
+      <c r="E10" s="22"/>
+      <c r="F10" s="23">
         <f>+F5+F6+F7+F8+F9+F3</f>
         <v>239119.55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25">
         <f>F11/2</f>
         <v>31508.89</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="25">
         <f>F11/2</f>
         <v>31508.89</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44">
+      <c r="E11" s="26"/>
+      <c r="F11" s="27">
         <v>63017.78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="42">
+      <c r="B12" s="29"/>
+      <c r="C12" s="25">
         <f>F12/2</f>
         <v>12480.75</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="25">
         <f>F12/2</f>
         <v>12480.75</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="44">
+      <c r="E12" s="25"/>
+      <c r="F12" s="27">
         <v>24961.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="42">
+      <c r="B13" s="29"/>
+      <c r="C13" s="25">
         <f>F13/2</f>
         <v>7732.03</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="25">
         <f>F13/2</f>
         <v>7732.03</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="44">
+      <c r="E13" s="25"/>
+      <c r="F13" s="27">
         <v>15464.06</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="15">
         <f>F14</f>
         <v>10000</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="44">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="27">
         <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
         <f>F15</f>
         <v>17290.75</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="30">
         <v>17290.75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="31">
         <f>SUM(B10:B15)</f>
         <v>10000</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="31">
         <f>SUM(C10:C15)</f>
         <v>227142.91</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="31">
         <f>SUM(D10:D15)</f>
         <v>115419.98</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="31">
         <f>SUM(E10:E15)</f>
         <v>17290.75</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="33">
         <f>SUM(F10:F15)+0.01</f>
         <v>369853.64999999997</v>
       </c>
@@ -2044,7 +2010,7 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -2057,61 +2023,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
@@ -2182,31 +2148,31 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="32">
+      <c r="R4" s="15">
         <v>3524.03</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="59"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="52"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2228,7 +2194,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="32">
+      <c r="R6" s="15">
         <v>127623.44</v>
       </c>
     </row>
@@ -2252,7 +2218,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="32">
+      <c r="R7" s="15">
         <v>80547.539999999994</v>
       </c>
     </row>
@@ -2276,7 +2242,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="32">
+      <c r="R8" s="15">
         <v>16061.35</v>
       </c>
     </row>
@@ -2300,7 +2266,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="32">
+      <c r="R9" s="15">
         <v>7363.19</v>
       </c>
     </row>
@@ -2324,7 +2290,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="35">
+      <c r="R10" s="18">
         <v>4000</v>
       </c>
     </row>
@@ -2348,7 +2314,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="40">
+      <c r="R11" s="23">
         <f>+R6+R7+R8+R9+R10+R4</f>
         <v>239119.55</v>
       </c>
@@ -2373,7 +2339,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="44">
+      <c r="R12" s="27">
         <v>63017.78</v>
       </c>
     </row>
@@ -2397,7 +2363,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="44">
+      <c r="R13" s="27">
         <v>24961.5</v>
       </c>
     </row>
@@ -2421,7 +2387,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="44">
+      <c r="R14" s="27">
         <v>15464.06</v>
       </c>
     </row>
@@ -2445,7 +2411,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="44">
+      <c r="R15" s="27">
         <v>10000</v>
       </c>
     </row>
@@ -2469,12 +2435,12 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="47">
+      <c r="R16" s="30">
         <v>17290.75</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2496,57 +2462,57 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="17">
+      <c r="A18" s="49"/>
+      <c r="B18" s="42">
         <f>FINANCIERO!B16</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45">
         <f>FINANCIERO!C16</f>
         <v>227142.91</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="20">
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="45">
         <f>FINANCIERO!D16</f>
         <v>115419.98</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="20">
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="45">
         <f>FINANCIERO!E16</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
       <c r="R19" s="7">
         <f>SUM(R11:R16)+0.01</f>
         <v>369853.64999999997</v>
@@ -2554,6 +2520,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2562,11 +2533,6 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
